--- a/medicine/Enfance/Jeanne_Sophie_Mallès_de_Beaulieu/Jeanne_Sophie_Mallès_de_Beaulieu.xlsx
+++ b/medicine/Enfance/Jeanne_Sophie_Mallès_de_Beaulieu/Jeanne_Sophie_Mallès_de_Beaulieu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jeanne_Sophie_Mall%C3%A8s_de_Beaulieu</t>
+          <t>Jeanne_Sophie_Mallès_de_Beaulieu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mme Mallès de Beaulieu, Jeanne Sophie Guillemaut de Beaulieu[1], épouse Mallès, née le 19 janvier 1760 à Lorient (Morbihan), morte le 26 avril 1825 à Nontron (Dordogne)[2], est une écrivaine française. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mme Mallès de Beaulieu, Jeanne Sophie Guillemaut de Beaulieu, épouse Mallès, née le 19 janvier 1760 à Lorient (Morbihan), morte le 26 avril 1825 à Nontron (Dordogne), est une écrivaine française. 
 Elle s’est fait connaître par des écrits moraux destinés à l’instruction de la jeunesse.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jeanne_Sophie_Mall%C3%A8s_de_Beaulieu</t>
+          <t>Jeanne_Sophie_Mallès_de_Beaulieu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jeanne_Sophie_Mall%C3%A8s_de_Beaulieu</t>
+          <t>Jeanne_Sophie_Mallès_de_Beaulieu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,11 +552,13 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lucas et Claudine, ou le Bienfait de la reconnaissance, 2 vol. in-12, Paris, 1816.
 Contes à ma jeune famille, Paris, Blanchard, 1819, lire en ligne sur Gallica.
-Contes d’une mère à sa fille, Paris, Pierre Blanchard, 1817, 2 vol. in-12, 1820, 2e édit. augmentée, avec des gravures, tome premier [1] ; tome second [2], lire en ligne sur Gallica.
+Contes d’une mère à sa fille, Paris, Pierre Blanchard, 1817, 2 vol. in-12, 1820, 2e édit. augmentée, avec des gravures, tome premier  ; tome second , lire en ligne sur Gallica.
 Le Robinson de douze ans : histoire intéressante d’un jeune mousse français, abandonné dans une île déserte, Paris, Pierre Blanchard, 1820, lire en ligne sur Gallica.
 Lettres de deux jeunes amies, Paris, Pierre Blanchard, 1820.
 Quelques scènes de ménage, 2 vol., Paris, Lecaudey, 1820.
